--- a/Pricer.xlsx
+++ b/Pricer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F128998-D1A4-467A-9A55-CC711BD71AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E44CE1-BA19-4538-8BE2-C43AE0461F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10550" yWindow="3760" windowWidth="22340" windowHeight="13930" activeTab="2" xr2:uid="{209CB2CF-8624-4DAA-8328-4288A5F3ADFC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{209CB2CF-8624-4DAA-8328-4288A5F3ADFC}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -754,6 +754,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -761,7 +762,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1762,12 +1762,13 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.08984375" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
@@ -1811,7 +1812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7563A0-52A1-4017-8B5A-A06677F82AB6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2940,7 +2943,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
